--- a/ワードウルフ_質問データベース_No1.xlsx
+++ b/ワードウルフ_質問データベース_No1.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
-    <sheet name="food" sheetId="3" r:id="rId2"/>
+    <sheet name="食べ物" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="121">
   <si>
     <t>ワード1</t>
     <phoneticPr fontId="1"/>
@@ -384,13 +384,109 @@
   </si>
   <si>
     <t>スカイツリー</t>
+  </si>
+  <si>
+    <t>LINEで告白</t>
+  </si>
+  <si>
+    <t>手紙で告白</t>
+  </si>
+  <si>
+    <t>束縛系</t>
+  </si>
+  <si>
+    <t>ストーカー</t>
+  </si>
+  <si>
+    <t>筋肉フェチ</t>
+  </si>
+  <si>
+    <t>手フェチ</t>
+  </si>
+  <si>
+    <t>声フェチ</t>
+  </si>
+  <si>
+    <t>匂いフェチ</t>
+  </si>
+  <si>
+    <t>高収入の異性</t>
+  </si>
+  <si>
+    <t>高身長の異性</t>
+  </si>
+  <si>
+    <t>誠実な恋人</t>
+  </si>
+  <si>
+    <t>優しい恋人</t>
+  </si>
+  <si>
+    <t>好みの顔の異性</t>
+  </si>
+  <si>
+    <t>好みの体系の異性</t>
+  </si>
+  <si>
+    <t>金銭感覚が合う</t>
+  </si>
+  <si>
+    <t>趣味が合う</t>
+  </si>
+  <si>
+    <t>笑顔が素敵な異性</t>
+  </si>
+  <si>
+    <t>ユーモアがある異性</t>
+  </si>
+  <si>
+    <t>肉食男子</t>
+  </si>
+  <si>
+    <t>草食男子</t>
+  </si>
+  <si>
+    <t>水族館デート</t>
+  </si>
+  <si>
+    <t>動物園デート</t>
+  </si>
+  <si>
+    <t>カラオケデート</t>
+  </si>
+  <si>
+    <t>映画館デート</t>
+  </si>
+  <si>
+    <t>浮気</t>
+  </si>
+  <si>
+    <t>性格の不一致</t>
+  </si>
+  <si>
+    <t>結婚</t>
+  </si>
+  <si>
+    <t>同棲</t>
+  </si>
+  <si>
+    <t>約束を破る恋人</t>
+  </si>
+  <si>
+    <t>悪口を言う恋人</t>
+  </si>
+  <si>
+    <t>煙草をたくさん吸う異性</t>
+  </si>
+  <si>
+    <t>お酒をたくさん飲む異性</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,8 +517,22 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,6 +542,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFBFC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +587,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -485,6 +607,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -788,10 +919,671 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.26953125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -822,491 +1614,6 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49" style="1" customWidth="1"/>
-    <col min="5" max="5" width="47.26953125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>

--- a/ワードウルフ_質問データベース_No1.xlsx
+++ b/ワードウルフ_質問データベース_No1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="122">
   <si>
     <t>ワード1</t>
     <phoneticPr fontId="1"/>
@@ -383,103 +383,111 @@
     <t>東京タワー</t>
   </si>
   <si>
+    <t>LINEで告白</t>
+  </si>
+  <si>
+    <t>手紙で告白</t>
+  </si>
+  <si>
+    <t>束縛系</t>
+  </si>
+  <si>
+    <t>ストーカー</t>
+  </si>
+  <si>
+    <t>筋肉フェチ</t>
+  </si>
+  <si>
+    <t>手フェチ</t>
+  </si>
+  <si>
+    <t>声フェチ</t>
+  </si>
+  <si>
+    <t>匂いフェチ</t>
+  </si>
+  <si>
+    <t>高収入の異性</t>
+  </si>
+  <si>
+    <t>高身長の異性</t>
+  </si>
+  <si>
+    <t>誠実な恋人</t>
+  </si>
+  <si>
+    <t>優しい恋人</t>
+  </si>
+  <si>
+    <t>好みの顔の異性</t>
+  </si>
+  <si>
+    <t>好みの体系の異性</t>
+  </si>
+  <si>
+    <t>金銭感覚が合う</t>
+  </si>
+  <si>
+    <t>趣味が合う</t>
+  </si>
+  <si>
+    <t>笑顔が素敵な異性</t>
+  </si>
+  <si>
+    <t>ユーモアがある異性</t>
+  </si>
+  <si>
+    <t>肉食男子</t>
+  </si>
+  <si>
+    <t>草食男子</t>
+  </si>
+  <si>
+    <t>水族館デート</t>
+  </si>
+  <si>
+    <t>動物園デート</t>
+  </si>
+  <si>
+    <t>カラオケデート</t>
+  </si>
+  <si>
+    <t>映画館デート</t>
+  </si>
+  <si>
+    <t>浮気</t>
+  </si>
+  <si>
+    <t>性格の不一致</t>
+  </si>
+  <si>
+    <t>結婚</t>
+  </si>
+  <si>
+    <t>同棲</t>
+  </si>
+  <si>
+    <t>約束を破る恋人</t>
+  </si>
+  <si>
+    <t>悪口を言う恋人</t>
+  </si>
+  <si>
+    <t>煙草をたくさん吸う異性</t>
+  </si>
+  <si>
+    <t>お酒をたくさん飲む異性</t>
+  </si>
+  <si>
     <t>スカイツリー</t>
-  </si>
-  <si>
-    <t>LINEで告白</t>
-  </si>
-  <si>
-    <t>手紙で告白</t>
-  </si>
-  <si>
-    <t>束縛系</t>
-  </si>
-  <si>
-    <t>ストーカー</t>
-  </si>
-  <si>
-    <t>筋肉フェチ</t>
-  </si>
-  <si>
-    <t>手フェチ</t>
-  </si>
-  <si>
-    <t>声フェチ</t>
-  </si>
-  <si>
-    <t>匂いフェチ</t>
-  </si>
-  <si>
-    <t>高収入の異性</t>
-  </si>
-  <si>
-    <t>高身長の異性</t>
-  </si>
-  <si>
-    <t>誠実な恋人</t>
-  </si>
-  <si>
-    <t>優しい恋人</t>
-  </si>
-  <si>
-    <t>好みの顔の異性</t>
-  </si>
-  <si>
-    <t>好みの体系の異性</t>
-  </si>
-  <si>
-    <t>金銭感覚が合う</t>
-  </si>
-  <si>
-    <t>趣味が合う</t>
-  </si>
-  <si>
-    <t>笑顔が素敵な異性</t>
-  </si>
-  <si>
-    <t>ユーモアがある異性</t>
-  </si>
-  <si>
-    <t>肉食男子</t>
-  </si>
-  <si>
-    <t>草食男子</t>
-  </si>
-  <si>
-    <t>水族館デート</t>
-  </si>
-  <si>
-    <t>動物園デート</t>
-  </si>
-  <si>
-    <t>カラオケデート</t>
-  </si>
-  <si>
-    <t>映画館デート</t>
-  </si>
-  <si>
-    <t>浮気</t>
-  </si>
-  <si>
-    <t>性格の不一致</t>
-  </si>
-  <si>
-    <t>結婚</t>
-  </si>
-  <si>
-    <t>同棲</t>
-  </si>
-  <si>
-    <t>約束を破る恋人</t>
-  </si>
-  <si>
-    <t>悪口を言う恋人</t>
-  </si>
-  <si>
-    <t>煙草をたくさん吸う異性</t>
-  </si>
-  <si>
-    <t>お酒をたくさん飲む異性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>富士山</t>
+    <rPh sb="0" eb="3">
+      <t>フジサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -919,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1275,7 +1283,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>67</v>
       </c>
@@ -1390,139 +1398,139 @@
         <v>87</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>90</v>
+      <c r="A40" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>92</v>
+      <c r="A41" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>94</v>
+      <c r="A42" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>96</v>
+      <c r="A43" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>98</v>
+      <c r="A44" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>100</v>
+      <c r="A45" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>102</v>
+      <c r="A46" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>104</v>
+      <c r="A47" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>106</v>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>108</v>
+      <c r="A49" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>110</v>
+      <c r="A50" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>112</v>
+      <c r="A51" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -1530,47 +1538,58 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>116</v>
+      <c r="A53" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>118</v>
+      <c r="A54" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>120</v>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/ワードウルフ_質問データベース_No1.xlsx
+++ b/ワードウルフ_質問データベース_No1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="168">
   <si>
     <t>ワード1</t>
     <phoneticPr fontId="1"/>
@@ -254,12 +254,6 @@
     <t>シューマイ</t>
   </si>
   <si>
-    <t>友達</t>
-  </si>
-  <si>
-    <t>親友</t>
-  </si>
-  <si>
     <t>石鹸</t>
   </si>
   <si>
@@ -293,9 +287,6 @@
     <t>twitter</t>
   </si>
   <si>
-    <t>Line</t>
-  </si>
-  <si>
     <t>水族館</t>
   </si>
   <si>
@@ -383,36 +374,6 @@
     <t>東京タワー</t>
   </si>
   <si>
-    <t>LINEで告白</t>
-  </si>
-  <si>
-    <t>手紙で告白</t>
-  </si>
-  <si>
-    <t>束縛系</t>
-  </si>
-  <si>
-    <t>ストーカー</t>
-  </si>
-  <si>
-    <t>筋肉フェチ</t>
-  </si>
-  <si>
-    <t>手フェチ</t>
-  </si>
-  <si>
-    <t>声フェチ</t>
-  </si>
-  <si>
-    <t>匂いフェチ</t>
-  </si>
-  <si>
-    <t>高収入の異性</t>
-  </si>
-  <si>
-    <t>高身長の異性</t>
-  </si>
-  <si>
     <t>誠実な恋人</t>
   </si>
   <si>
@@ -437,34 +398,10 @@
     <t>ユーモアがある異性</t>
   </si>
   <si>
-    <t>肉食男子</t>
-  </si>
-  <si>
-    <t>草食男子</t>
-  </si>
-  <si>
     <t>水族館デート</t>
   </si>
   <si>
     <t>動物園デート</t>
-  </si>
-  <si>
-    <t>カラオケデート</t>
-  </si>
-  <si>
-    <t>映画館デート</t>
-  </si>
-  <si>
-    <t>浮気</t>
-  </si>
-  <si>
-    <t>性格の不一致</t>
-  </si>
-  <si>
-    <t>結婚</t>
-  </si>
-  <si>
-    <t>同棲</t>
   </si>
   <si>
     <t>約束を破る恋人</t>
@@ -486,6 +423,223 @@
     <t>富士山</t>
     <rPh sb="0" eb="3">
       <t>フジサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通信簿</t>
+    <rPh sb="0" eb="3">
+      <t>ツウシンボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>採点されたテスト用紙</t>
+    <rPh sb="0" eb="2">
+      <t>サイテン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Facebook</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遊園地</t>
+  </si>
+  <si>
+    <t>昼寝</t>
+  </si>
+  <si>
+    <t>夜更かし</t>
+  </si>
+  <si>
+    <t>寝坊</t>
+  </si>
+  <si>
+    <t>忘れ物</t>
+  </si>
+  <si>
+    <t>出前</t>
+  </si>
+  <si>
+    <t>再配達</t>
+  </si>
+  <si>
+    <t>常備薬</t>
+  </si>
+  <si>
+    <t>サプリメント</t>
+  </si>
+  <si>
+    <t>金魚</t>
+  </si>
+  <si>
+    <t>カメ</t>
+  </si>
+  <si>
+    <t>図書館</t>
+  </si>
+  <si>
+    <t>古本屋</t>
+  </si>
+  <si>
+    <t>同窓会</t>
+  </si>
+  <si>
+    <t>結婚式</t>
+  </si>
+  <si>
+    <t>蝶ネクタイ</t>
+  </si>
+  <si>
+    <t>リボン</t>
+  </si>
+  <si>
+    <t>体温計</t>
+  </si>
+  <si>
+    <t>体重計</t>
+  </si>
+  <si>
+    <t>財布</t>
+  </si>
+  <si>
+    <t>電子マネー</t>
+  </si>
+  <si>
+    <t>天気予報</t>
+  </si>
+  <si>
+    <t>星座占い</t>
+  </si>
+  <si>
+    <t>推理小説</t>
+  </si>
+  <si>
+    <t>謎解きゲーム</t>
+  </si>
+  <si>
+    <t>充電ケーブル</t>
+  </si>
+  <si>
+    <t>延長コード</t>
+  </si>
+  <si>
+    <t>スニーカー</t>
+  </si>
+  <si>
+    <t>革靴</t>
+  </si>
+  <si>
+    <t>枕</t>
+  </si>
+  <si>
+    <t>クッション</t>
+  </si>
+  <si>
+    <t>とっくり</t>
+  </si>
+  <si>
+    <t>升酒</t>
+  </si>
+  <si>
+    <t>キーホルダー</t>
+  </si>
+  <si>
+    <t>ぬいぐるみ</t>
+  </si>
+  <si>
+    <t>ショートカット</t>
+  </si>
+  <si>
+    <t>黒髪</t>
+  </si>
+  <si>
+    <t>トートバッグ</t>
+  </si>
+  <si>
+    <t>リュックサック</t>
+  </si>
+  <si>
+    <t>接着剤</t>
+  </si>
+  <si>
+    <t>ウノ</t>
+  </si>
+  <si>
+    <t>ジェンガ</t>
+  </si>
+  <si>
+    <t>ティッシュペーパー</t>
+  </si>
+  <si>
+    <t>トイレットペーパー</t>
+  </si>
+  <si>
+    <t>ドラッグストア</t>
+  </si>
+  <si>
+    <t>ネックレス</t>
+  </si>
+  <si>
+    <t>指輪</t>
+  </si>
+  <si>
+    <t>スリッパ</t>
+  </si>
+  <si>
+    <t>サンダル</t>
+  </si>
+  <si>
+    <t>フィギュア</t>
+  </si>
+  <si>
+    <t>バッジ</t>
+  </si>
+  <si>
+    <t>運転免許証</t>
+  </si>
+  <si>
+    <t>保険証</t>
+  </si>
+  <si>
+    <t>トイレ</t>
+  </si>
+  <si>
+    <t>風呂</t>
+  </si>
+  <si>
+    <t>シーソー</t>
+  </si>
+  <si>
+    <t>ブランコ</t>
+  </si>
+  <si>
+    <t>あやとり</t>
+  </si>
+  <si>
+    <t>ヨーヨー</t>
+  </si>
+  <si>
+    <t>パチンコ</t>
+  </si>
+  <si>
+    <t>宝くじ</t>
+  </si>
+  <si>
+    <t>二日酔い</t>
+  </si>
+  <si>
+    <t>風邪</t>
+  </si>
+  <si>
+    <t>公園</t>
+    <rPh sb="0" eb="2">
+      <t>コウエン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -494,7 +648,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,15 +680,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -595,7 +741,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -614,17 +760,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -927,16 +1076,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
     <col min="4" max="4" width="49" style="1" customWidth="1"/>
     <col min="5" max="5" width="47.26953125" style="1" customWidth="1"/>
@@ -961,10 +1108,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -976,10 +1123,10 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -993,10 +1140,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1008,10 +1155,10 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1021,10 +1168,10 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1036,10 +1183,10 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1053,10 +1200,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="5"/>
@@ -1064,10 +1211,10 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="5"/>
@@ -1075,10 +1222,10 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="5"/>
@@ -1086,10 +1233,10 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="5"/>
@@ -1097,10 +1244,10 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="5"/>
@@ -1108,10 +1255,10 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="5"/>
@@ -1119,10 +1266,10 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="5"/>
@@ -1130,10 +1277,10 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="5"/>
@@ -1141,10 +1288,10 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="5"/>
@@ -1152,10 +1299,10 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="5"/>
@@ -1163,10 +1310,10 @@
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C18" s="5"/>
@@ -1174,10 +1321,10 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="5"/>
@@ -1185,275 +1332,275 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>50</v>
+      <c r="A20" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>52</v>
+      <c r="A21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>54</v>
+      <c r="A22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>56</v>
+      <c r="A23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>58</v>
+      <c r="A24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>60</v>
+      <c r="A25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>62</v>
+      <c r="A26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>64</v>
+      <c r="A27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>66</v>
+      <c r="A28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>68</v>
+      <c r="A29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>70</v>
+      <c r="A30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>72</v>
+      <c r="A31" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>74</v>
+      <c r="A32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>76</v>
+      <c r="A33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>78</v>
+      <c r="A34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>80</v>
+      <c r="A35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>82</v>
+      <c r="A36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>84</v>
+      <c r="A37" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>86</v>
+      <c r="A38" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>120</v>
+      <c r="A39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>120</v>
+      <c r="A40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>89</v>
+      <c r="A41" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>91</v>
+      <c r="A42" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>93</v>
+      <c r="A43" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>95</v>
+      <c r="A44" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -1461,10 +1608,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -1472,10 +1619,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -1483,113 +1630,377 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="A48" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="B49" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="8" t="s">
+      <c r="A50" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="B50" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="9" t="s">
+      <c r="A51" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="B51" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" s="8" t="s">
+      <c r="A52" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="B52" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" s="8" t="s">
+      <c r="A53" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="B53" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B54" s="9" t="s">
+      <c r="A54" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="B54" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" s="8" t="s">
+      <c r="A55" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
+      <c r="B55" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="B56" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/ワードウルフ_質問データベース_No1.xlsx
+++ b/ワードウルフ_質問データベース_No1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="242">
   <si>
     <t>ワード1</t>
     <phoneticPr fontId="1"/>
@@ -224,12 +224,6 @@
     <t>シャープペン</t>
   </si>
   <si>
-    <t>青</t>
-  </si>
-  <si>
-    <t>水色</t>
-  </si>
-  <si>
     <t>ポイントカード</t>
   </si>
   <si>
@@ -293,12 +287,6 @@
     <t>動物園</t>
   </si>
   <si>
-    <t>ドラえもん</t>
-  </si>
-  <si>
-    <t>ドラミちゃん</t>
-  </si>
-  <si>
     <t>ファミレス</t>
   </si>
   <si>
@@ -353,12 +341,6 @@
     <t>プール</t>
   </si>
   <si>
-    <t>年末</t>
-  </si>
-  <si>
-    <t>年始</t>
-  </si>
-  <si>
     <t>コンタクトレンズ</t>
   </si>
   <si>
@@ -378,18 +360,6 @@
   </si>
   <si>
     <t>優しい恋人</t>
-  </si>
-  <si>
-    <t>好みの顔の異性</t>
-  </si>
-  <si>
-    <t>好みの体系の異性</t>
-  </si>
-  <si>
-    <t>金銭感覚が合う</t>
-  </si>
-  <si>
-    <t>趣味が合う</t>
   </si>
   <si>
     <t>笑顔が素敵な異性</t>
@@ -574,12 +544,6 @@
     <t>ジェンガ</t>
   </si>
   <si>
-    <t>ティッシュペーパー</t>
-  </si>
-  <si>
-    <t>トイレットペーパー</t>
-  </si>
-  <si>
     <t>ドラッグストア</t>
   </si>
   <si>
@@ -605,18 +569,6 @@
   </si>
   <si>
     <t>保険証</t>
-  </si>
-  <si>
-    <t>トイレ</t>
-  </si>
-  <si>
-    <t>風呂</t>
-  </si>
-  <si>
-    <t>シーソー</t>
-  </si>
-  <si>
-    <t>ブランコ</t>
   </si>
   <si>
     <t>あやとり</t>
@@ -640,6 +592,484 @@
     <t>公園</t>
     <rPh sb="0" eb="2">
       <t>コウエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どんなときに使いますか？</t>
+  </si>
+  <si>
+    <t>どんなときに使いますか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どんなときに食べますか</t>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お値段がどのくらいイメージですか？</t>
+    <rPh sb="1" eb="3">
+      <t>ネダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このメンバーでのなかでは、誰のイメージですか</t>
+    <rPh sb="13" eb="14">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青色</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒色</t>
+    <rPh sb="0" eb="2">
+      <t>クロイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の持っている備品はありますか？</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ビヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お値段がどのくらいイメージですか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どんな気分のときに食べますか</t>
+    <rPh sb="3" eb="5">
+      <t>キブン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これを見るとどんな気分になりますか</t>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>周りの人にみせたり</t>
+    <rPh sb="0" eb="1">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いつこれをやりますか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これはどんなときにやりますか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これはどんなときにやりますか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どんなときにここにいきますか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このメンバーだと誰が一番使っていそうなイメージですか？</t>
+    <rPh sb="8" eb="9">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これは、よくどこにあるイメージですか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いままでこのようなモノ・ことに出会ったことありますか？</t>
+    <rPh sb="15" eb="17">
+      <t>デア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このメンバーでのなかでは、これをよくやるのは誰のイメージですか</t>
+    <rPh sb="22" eb="23">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これはどんな場所でみかけるものですか？</t>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここに行くのは好きですか？</t>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここのイメージを声や音で表現してみてください</t>
+    <rPh sb="8" eb="9">
+      <t>コエ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誰が一番似合いそうでしょうか</t>
+    <rPh sb="0" eb="1">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誰が一番似合いそうでしょうか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どんなときに使いますか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どんなときに使いますか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家のどこのあたりにあるイメージでしょうか</t>
+    <rPh sb="0" eb="1">
+      <t>イエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重さはどのくらいのものでしょうか</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どのくらい持っていたりしますか？（数・量）</t>
+  </si>
+  <si>
+    <t>どのくらい持っていたりしますか？（数・量）</t>
+    <rPh sb="5" eb="6">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大事にしていますか？</t>
+    <rPh sb="0" eb="2">
+      <t>ダイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇さんはこれを持っていますか？</t>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どのくらい持っていたりしますか？（数・量）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家のどこのあたりにあるイメージでしょうか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重さはどのくらいのものでしょうか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これはどのくらいの割合でやりますか？</t>
+    <rPh sb="9" eb="11">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一週間にどのくらいいったりしますか？回数</t>
+    <rPh sb="0" eb="3">
+      <t>イッシュウカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このようなモノ・ことに出会ったらどんな気分になりますか？</t>
+    <rPh sb="19" eb="21">
+      <t>キブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いままでこのようなモノ・ことに出会ったことありますか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビリヤード</t>
+  </si>
+  <si>
+    <t>ボーリング</t>
+  </si>
+  <si>
+    <t>つり</t>
+  </si>
+  <si>
+    <t>虫取り</t>
+    <rPh sb="0" eb="2">
+      <t>ムシト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マラソン</t>
+  </si>
+  <si>
+    <t>登山</t>
+    <rPh sb="0" eb="2">
+      <t>トザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たけうま</t>
+  </si>
+  <si>
+    <t>すべり台</t>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぶらんこ</t>
+  </si>
+  <si>
+    <t>花火</t>
+    <rPh sb="0" eb="2">
+      <t>ハナビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海水浴</t>
+    <rPh sb="0" eb="3">
+      <t>カイスイヨク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラメル</t>
+  </si>
+  <si>
+    <t>チョコレート</t>
+  </si>
+  <si>
+    <t>ポップコーン</t>
+  </si>
+  <si>
+    <t>ポテトチップス</t>
+  </si>
+  <si>
+    <t>ゼリー</t>
+  </si>
+  <si>
+    <t>グミ</t>
+  </si>
+  <si>
+    <t>ローソン</t>
+  </si>
+  <si>
+    <t>ファミマ</t>
+  </si>
+  <si>
+    <t>ゆず</t>
+  </si>
+  <si>
+    <t>シークワーサー</t>
+  </si>
+  <si>
+    <t>スペイン</t>
+  </si>
+  <si>
+    <t>イタリア</t>
+  </si>
+  <si>
+    <t>さんま</t>
+  </si>
+  <si>
+    <t>鮭</t>
+    <rPh sb="0" eb="1">
+      <t>サケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教授</t>
+    <rPh sb="0" eb="2">
+      <t>キョウジュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>博士</t>
+    <rPh sb="0" eb="2">
+      <t>ハカセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はちみつ</t>
+  </si>
+  <si>
+    <t>メープルシロップ</t>
+  </si>
+  <si>
+    <t>ヨーグルト</t>
+  </si>
+  <si>
+    <t>チーズ</t>
+  </si>
+  <si>
+    <t>サランラップ</t>
+  </si>
+  <si>
+    <t>アルミホイル</t>
+  </si>
+  <si>
+    <t>もずく</t>
+  </si>
+  <si>
+    <t>めかぶ</t>
+  </si>
+  <si>
+    <t>アスパラガス</t>
+  </si>
+  <si>
+    <t>エリンギ</t>
+  </si>
+  <si>
+    <t>たまごやき</t>
+  </si>
+  <si>
+    <t>めだまやき</t>
+  </si>
+  <si>
+    <t>ビーフシチュー</t>
+  </si>
+  <si>
+    <t>ハヤシライス</t>
+  </si>
+  <si>
+    <t>ステーキ</t>
+  </si>
+  <si>
+    <t>ハンバーグ</t>
+  </si>
+  <si>
+    <t>これを見るとどんな気分になりますか</t>
+  </si>
+  <si>
+    <t>これはどのくらいの割合でやりますか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後にやったのはいつになるでしょうか？</t>
+    <rPh sb="0" eb="2">
+      <t>サイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色のイメージはどんな感じでしょうか</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どのくらいの時間帯によくみかけますか？</t>
+    <rPh sb="6" eb="9">
+      <t>ジカンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誰が一番似合いそうでしょうか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なににトッピングするのが似合うと思いますか？</t>
+    <rPh sb="12" eb="14">
+      <t>ニア</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オモ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -648,7 +1078,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,6 +1111,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -741,7 +1178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,6 +1211,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1076,15 +1516,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.26953125" style="1" customWidth="1"/>
     <col min="4" max="4" width="49" style="1" customWidth="1"/>
     <col min="5" max="5" width="47.26953125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -1162,7 +1604,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1206,7 +1648,9 @@
       <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
@@ -1217,7 +1661,9 @@
       <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
@@ -1228,7 +1674,9 @@
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
@@ -1239,7 +1687,9 @@
       <c r="B11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
@@ -1250,269 +1700,325 @@
       <c r="B12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+        <v>157</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1520,10 +2026,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1531,120 +2037,132 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>99</v>
+      <c r="A39" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="A40" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>86</v>
+      <c r="A41" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="5"/>
+      <c r="A42" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="5"/>
+      <c r="A43" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>92</v>
+      <c r="A44" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="A45" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="A46" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="A47" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1652,10 +2170,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -1663,21 +2181,23 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1685,43 +2205,51 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -1729,10 +2257,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -1740,267 +2268,498 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" s="3"/>
+        <v>122</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C62" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C64" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C66" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C67" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C68" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C72" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C73" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
+      <c r="A74" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E74" s="11"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
+      <c r="A75" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
+      <c r="A76" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
+      <c r="A77" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E77" s="11"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
+      <c r="A78" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
+      <c r="A79" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
+      <c r="A80" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E80" s="11"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E88" s="11"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
